--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10989\PycharmProjects\1_alloy_fatigue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10989\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204676E-A60D-4B3A-83E1-C5E798AA91AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCE7E3-CC54-4893-88A1-58750A1434FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="1194">
   <si>
     <t>Al</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3498,25 +3498,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDAS</t>
-  </si>
-  <si>
-    <t>Vh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elongation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UTS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3525,33 +3506,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CYS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UTS/SYS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ra</t>
-  </si>
-  <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Fre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Composition</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3606,31 +3564,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>400–1500</t>
-  </si>
-  <si>
-    <t>25–65</t>
-  </si>
-  <si>
-    <t>22–62</t>
-  </si>
-  <si>
     <t xml:space="preserve">aluminum 357 alloy $SSM </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50–350</t>
-  </si>
-  <si>
     <t>T5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">aluminum 357 alloy $SSM-Sr </t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40–400</t>
   </si>
   <si>
     <t>A6N01S-T5-A</t>
@@ -4158,7 +4101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
@@ -41995,15 +41938,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7851916-21BC-4B74-8EB2-D1F1B2AC0DCE}">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1145</v>
       </c>
@@ -42022,7 +41971,7 @@
       <c r="F1" t="s">
         <v>1150</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>1151</v>
       </c>
       <c r="H1" t="s">
@@ -42031,2224 +41980,1571 @@
       <c r="I1" t="s">
         <v>1153</v>
       </c>
-      <c r="J1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="C2" t="s">
-        <v>1166</v>
+        <v>1155</v>
+      </c>
+      <c r="D2">
+        <v>464</v>
+      </c>
+      <c r="E2">
+        <v>438</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>72</v>
-      </c>
-      <c r="I2">
-        <v>464</v>
-      </c>
-      <c r="J2">
-        <v>438</v>
-      </c>
-      <c r="K2">
-        <v>400</v>
-      </c>
-      <c r="L2">
-        <v>27</v>
-      </c>
-      <c r="M2">
-        <v>260</v>
-      </c>
-      <c r="N2">
-        <v>1.79</v>
-      </c>
-      <c r="O2">
-        <v>0.8</v>
-      </c>
-      <c r="P2">
-        <v>0.1</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
-      </c>
-      <c r="R2" s="3">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="C3" t="s">
-        <v>1166</v>
+        <v>1155</v>
+      </c>
+      <c r="D3">
+        <v>464</v>
+      </c>
+      <c r="E3">
+        <v>438</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>72</v>
-      </c>
-      <c r="I3">
-        <v>464</v>
-      </c>
-      <c r="J3">
-        <v>438</v>
-      </c>
-      <c r="K3">
-        <v>400</v>
-      </c>
-      <c r="L3">
-        <v>27</v>
-      </c>
-      <c r="M3">
-        <v>260</v>
-      </c>
-      <c r="N3">
-        <v>1.79</v>
-      </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="P3">
-        <v>0.1</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
-      </c>
-      <c r="R3" s="3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="C4" t="s">
-        <v>1169</v>
+        <v>1158</v>
+      </c>
+      <c r="D4">
+        <v>464</v>
+      </c>
+      <c r="E4">
+        <v>438</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>72</v>
-      </c>
-      <c r="I4">
-        <v>464</v>
-      </c>
-      <c r="J4">
-        <v>438</v>
-      </c>
-      <c r="K4">
-        <v>400</v>
-      </c>
-      <c r="L4">
-        <v>27</v>
-      </c>
-      <c r="M4">
-        <v>260</v>
-      </c>
-      <c r="N4">
-        <v>1.79</v>
-      </c>
-      <c r="O4">
-        <v>6.3</v>
-      </c>
-      <c r="P4">
-        <v>0.1</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4" s="3">
         <v>1</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="C5" t="s">
-        <v>1169</v>
+        <v>1158</v>
+      </c>
+      <c r="D5">
+        <v>464</v>
+      </c>
+      <c r="E5">
+        <v>438</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>72</v>
-      </c>
-      <c r="I5">
-        <v>464</v>
-      </c>
-      <c r="J5">
-        <v>438</v>
-      </c>
-      <c r="K5">
-        <v>400</v>
-      </c>
-      <c r="L5">
-        <v>27</v>
-      </c>
-      <c r="M5">
-        <v>260</v>
-      </c>
-      <c r="N5">
-        <v>1.79</v>
-      </c>
-      <c r="O5">
-        <v>0.8</v>
-      </c>
-      <c r="P5">
-        <v>-2</v>
-      </c>
-      <c r="Q5">
-        <v>10</v>
-      </c>
-      <c r="R5" s="3">
         <v>1</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+        <v>1158</v>
+      </c>
+      <c r="D6" s="6">
+        <v>464</v>
+      </c>
+      <c r="E6" s="6">
+        <v>438</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
       <c r="H6" s="6">
-        <v>72</v>
-      </c>
-      <c r="I6" s="6">
-        <v>464</v>
-      </c>
-      <c r="J6" s="6">
-        <v>438</v>
-      </c>
-      <c r="K6" s="6">
-        <v>400</v>
-      </c>
-      <c r="L6" s="6">
-        <v>27</v>
-      </c>
-      <c r="M6" s="6">
-        <v>260</v>
-      </c>
-      <c r="N6" s="6">
-        <v>1.79</v>
-      </c>
-      <c r="O6" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="P6" s="6">
-        <v>-2</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>10</v>
-      </c>
-      <c r="R6" s="7">
         <v>1</v>
       </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I6" s="6" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+        <v>1160</v>
+      </c>
+      <c r="D7" s="8">
         <v>331</v>
       </c>
-      <c r="J7" s="8">
+      <c r="E7" s="8">
         <v>272</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>25</v>
-      </c>
-      <c r="R7" s="9">
+      <c r="F7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="9">
         <v>2</v>
       </c>
-      <c r="S7" s="8">
+      <c r="H7" s="8">
         <v>3</v>
       </c>
-      <c r="T7" s="8" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I7" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="C8" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G8">
-        <v>7.6</v>
-      </c>
-      <c r="I8">
+        <v>1160</v>
+      </c>
+      <c r="D8">
         <v>353</v>
       </c>
-      <c r="J8">
+      <c r="E8">
         <v>299</v>
       </c>
-      <c r="P8">
-        <v>0.1</v>
-      </c>
-      <c r="Q8">
-        <v>25</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="S8">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="T8" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="42" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+        <v>1160</v>
+      </c>
+      <c r="D9" s="6">
         <v>361</v>
       </c>
-      <c r="J9" s="6">
+      <c r="E9" s="6">
         <v>327</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>25</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="F9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="7">
         <v>4</v>
       </c>
-      <c r="S9" s="6">
+      <c r="H9" s="6">
         <v>3</v>
       </c>
-      <c r="T9" s="6" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I9" s="6" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
+        <v>1164</v>
+      </c>
+      <c r="D10" s="8">
         <v>177</v>
       </c>
-      <c r="J10" s="8">
+      <c r="E10" s="8">
         <v>90</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
+      <c r="F10" s="8">
         <v>-1</v>
       </c>
-      <c r="Q10" s="8">
-        <v>20</v>
-      </c>
-      <c r="R10" s="9">
+      <c r="G10" s="9">
         <v>5</v>
       </c>
-      <c r="S10" s="8">
+      <c r="H10" s="8">
         <v>4</v>
       </c>
-      <c r="T10" s="8" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I10" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="C11" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I11">
+        <v>1160</v>
+      </c>
+      <c r="D11">
         <v>325</v>
       </c>
-      <c r="J11">
+      <c r="E11">
         <v>264</v>
       </c>
-      <c r="P11">
+      <c r="F11">
         <v>-1</v>
       </c>
-      <c r="Q11">
-        <v>20</v>
-      </c>
-      <c r="R11" s="3">
+      <c r="G11" s="3">
         <v>5</v>
       </c>
-      <c r="S11">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="T11" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="C12" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G12">
-        <v>9.1</v>
-      </c>
-      <c r="I12">
+        <v>1164</v>
+      </c>
+      <c r="D12">
         <v>213</v>
       </c>
-      <c r="J12">
+      <c r="E12">
         <v>111</v>
       </c>
-      <c r="P12">
+      <c r="F12">
         <v>-1</v>
       </c>
-      <c r="Q12">
-        <v>20</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="G12" s="3">
         <v>6</v>
       </c>
-      <c r="S12">
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="T12" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="C13" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G13">
-        <v>5.8</v>
-      </c>
-      <c r="I13">
+        <v>1166</v>
+      </c>
+      <c r="D13">
         <v>263</v>
       </c>
-      <c r="J13">
+      <c r="E13">
         <v>182</v>
       </c>
-      <c r="P13">
+      <c r="F13">
         <v>-1</v>
       </c>
-      <c r="Q13">
-        <v>20</v>
-      </c>
-      <c r="R13" s="3">
+      <c r="G13" s="3">
         <v>6</v>
       </c>
-      <c r="S13">
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="T13" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="C14" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G14">
-        <v>11.7</v>
-      </c>
-      <c r="I14">
+        <v>1166</v>
+      </c>
+      <c r="D14">
         <v>185</v>
       </c>
-      <c r="J14">
+      <c r="E14">
         <v>185</v>
       </c>
-      <c r="P14">
+      <c r="F14">
         <v>-1</v>
       </c>
-      <c r="Q14">
-        <v>20</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="G14" s="3">
         <v>7</v>
       </c>
-      <c r="S14">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="T14" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6">
+        <v>1160</v>
+      </c>
+      <c r="D15" s="6">
         <v>288</v>
       </c>
-      <c r="J15" s="6">
+      <c r="E15" s="6">
         <v>288</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6">
+      <c r="F15" s="6">
         <v>-1</v>
       </c>
-      <c r="Q15" s="6">
-        <v>20</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="G15" s="7">
         <v>7</v>
       </c>
-      <c r="S15" s="6">
+      <c r="H15" s="6">
         <v>4</v>
       </c>
-      <c r="T15" s="6" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I15" s="6" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+        <v>1166</v>
+      </c>
+      <c r="D16" s="8">
+        <v>253</v>
+      </c>
+      <c r="E16" s="8">
+        <v>223</v>
+      </c>
       <c r="F16" s="8">
-        <v>96</v>
-      </c>
-      <c r="G16" s="8">
-        <v>9</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8">
-        <v>253</v>
-      </c>
-      <c r="J16" s="8">
-        <v>223</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8">
         <v>-1</v>
       </c>
-      <c r="Q16" s="8">
-        <v>140</v>
-      </c>
-      <c r="R16" s="9">
+      <c r="G16" s="9">
         <v>8</v>
       </c>
-      <c r="S16" s="8">
+      <c r="H16" s="8">
         <v>5</v>
       </c>
-      <c r="T16" s="8" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I16" s="8" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="C17" t="s">
-        <v>1181</v>
+        <v>1166</v>
+      </c>
+      <c r="D17">
+        <v>264</v>
+      </c>
+      <c r="E17">
+        <v>236</v>
       </c>
       <c r="F17">
-        <v>96</v>
-      </c>
-      <c r="G17">
-        <v>13</v>
-      </c>
-      <c r="I17">
-        <v>264</v>
-      </c>
-      <c r="J17">
-        <v>236</v>
-      </c>
-      <c r="P17">
         <v>-1</v>
       </c>
-      <c r="Q17">
-        <v>140</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="G17" s="3">
         <v>9</v>
       </c>
-      <c r="S17">
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="T17" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+        <v>1166</v>
+      </c>
+      <c r="D18" s="6">
+        <v>195</v>
+      </c>
+      <c r="E18" s="6">
+        <v>138</v>
+      </c>
       <c r="F18" s="6">
-        <v>96</v>
-      </c>
-      <c r="G18" s="6">
-        <v>13</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6">
-        <v>195</v>
-      </c>
-      <c r="J18" s="6">
-        <v>138</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6">
         <v>-1</v>
       </c>
-      <c r="Q18" s="6">
-        <v>20</v>
-      </c>
-      <c r="R18" s="7">
+      <c r="G18" s="7">
         <v>9</v>
       </c>
-      <c r="S18" s="6">
+      <c r="H18" s="6">
         <v>5</v>
       </c>
-      <c r="T18" s="6" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I18" s="6" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+        <v>1173</v>
+      </c>
+      <c r="D19" s="8">
+        <v>473</v>
+      </c>
+      <c r="E19" s="8">
+        <v>364</v>
+      </c>
       <c r="F19" s="8">
-        <v>141</v>
-      </c>
-      <c r="G19" s="8">
-        <v>18</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8">
-        <v>473</v>
-      </c>
-      <c r="J19" s="8">
-        <v>364</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8">
         <v>-1</v>
       </c>
-      <c r="Q19" s="8">
-        <v>9</v>
-      </c>
-      <c r="R19" s="9">
+      <c r="G19" s="9">
         <v>10</v>
       </c>
-      <c r="S19" s="8">
+      <c r="H19" s="8">
         <v>7</v>
       </c>
-      <c r="T19" s="8" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I19" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="C20" t="s">
-        <v>1189</v>
+        <v>1173</v>
+      </c>
+      <c r="D20">
+        <v>473</v>
+      </c>
+      <c r="E20">
+        <v>364</v>
       </c>
       <c r="F20">
-        <v>141</v>
-      </c>
-      <c r="G20">
-        <v>18</v>
-      </c>
-      <c r="I20">
-        <v>473</v>
-      </c>
-      <c r="J20">
-        <v>364</v>
-      </c>
-      <c r="P20">
         <v>0.5</v>
       </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="G20" s="3">
         <v>10</v>
       </c>
-      <c r="S20">
+      <c r="H20">
         <v>7</v>
       </c>
-      <c r="T20" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+        <v>1173</v>
+      </c>
+      <c r="D21" s="6">
+        <v>473</v>
+      </c>
+      <c r="E21" s="6">
+        <v>364</v>
+      </c>
       <c r="F21" s="6">
-        <v>141</v>
-      </c>
-      <c r="G21" s="6">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6">
-        <v>473</v>
-      </c>
-      <c r="J21" s="6">
-        <v>364</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>9</v>
-      </c>
-      <c r="R21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="7">
         <v>10</v>
       </c>
-      <c r="S21" s="6">
+      <c r="H21" s="6">
         <v>7</v>
       </c>
-      <c r="T21" s="6" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I21" s="6" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="C22" t="s">
-        <v>1171</v>
+        <v>1160</v>
+      </c>
+      <c r="D22">
+        <v>600</v>
+      </c>
+      <c r="E22">
+        <v>531</v>
       </c>
       <c r="F22">
-        <v>179</v>
-      </c>
-      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="3">
         <v>11</v>
       </c>
-      <c r="I22">
-        <v>600</v>
-      </c>
-      <c r="J22">
-        <v>531</v>
-      </c>
-      <c r="P22">
-        <v>-1</v>
-      </c>
-      <c r="Q22">
-        <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>11</v>
-      </c>
-      <c r="S22">
+      <c r="H22">
         <v>8</v>
       </c>
-      <c r="T22" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="C23" t="s">
-        <v>1171</v>
+        <v>1160</v>
+      </c>
+      <c r="D23">
+        <v>603</v>
+      </c>
+      <c r="E23">
+        <v>536</v>
       </c>
       <c r="F23">
-        <v>179</v>
-      </c>
-      <c r="G23">
-        <v>12</v>
-      </c>
-      <c r="I23">
-        <v>603</v>
-      </c>
-      <c r="J23">
-        <v>536</v>
-      </c>
-      <c r="P23">
         <v>-1</v>
       </c>
-      <c r="Q23">
-        <v>100</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="G23" s="3">
         <v>11</v>
       </c>
-      <c r="S23">
+      <c r="H23">
         <v>8</v>
       </c>
-      <c r="T23" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="C24" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D24">
+        <v>664</v>
+      </c>
+      <c r="E24">
+        <v>599</v>
       </c>
       <c r="F24">
-        <v>184</v>
-      </c>
-      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="3">
         <v>12</v>
       </c>
-      <c r="I24">
-        <v>664</v>
-      </c>
-      <c r="J24">
-        <v>599</v>
-      </c>
-      <c r="P24">
-        <v>-1</v>
-      </c>
-      <c r="Q24">
-        <v>100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>12</v>
-      </c>
-      <c r="S24">
+      <c r="H24">
         <v>8</v>
       </c>
-      <c r="T24" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C25" t="s">
-        <v>1171</v>
+        <v>1160</v>
+      </c>
+      <c r="D25">
+        <v>657</v>
+      </c>
+      <c r="E25">
+        <v>603</v>
       </c>
       <c r="F25">
-        <v>183</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>657</v>
-      </c>
-      <c r="J25">
-        <v>603</v>
-      </c>
-      <c r="P25">
         <v>-1</v>
       </c>
-      <c r="Q25">
-        <v>100</v>
-      </c>
-      <c r="R25" s="3">
+      <c r="G25" s="3">
         <v>13</v>
       </c>
-      <c r="S25">
+      <c r="H25">
         <v>8</v>
       </c>
-      <c r="T25" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="C26" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D26">
+        <v>600</v>
+      </c>
+      <c r="E26">
+        <v>531</v>
       </c>
       <c r="F26">
-        <v>179</v>
-      </c>
-      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>11</v>
       </c>
-      <c r="I26">
-        <v>600</v>
-      </c>
-      <c r="J26">
-        <v>531</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>11</v>
-      </c>
-      <c r="S26">
+      <c r="H26">
         <v>8</v>
       </c>
-      <c r="T26" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="C27" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D27">
+        <v>603</v>
+      </c>
+      <c r="E27">
+        <v>536</v>
       </c>
       <c r="F27">
-        <v>179</v>
-      </c>
-      <c r="G27">
-        <v>12</v>
-      </c>
-      <c r="I27">
-        <v>603</v>
-      </c>
-      <c r="J27">
-        <v>536</v>
-      </c>
-      <c r="P27">
         <v>0</v>
       </c>
-      <c r="Q27">
-        <v>100</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="G27" s="3">
         <v>11</v>
       </c>
-      <c r="S27">
+      <c r="H27">
         <v>8</v>
       </c>
-      <c r="T27" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="C28" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D28">
+        <v>664</v>
+      </c>
+      <c r="E28">
+        <v>599</v>
       </c>
       <c r="F28">
-        <v>184</v>
-      </c>
-      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
         <v>12</v>
       </c>
-      <c r="I28">
-        <v>664</v>
-      </c>
-      <c r="J28">
-        <v>599</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>100</v>
-      </c>
-      <c r="R28" s="3">
-        <v>12</v>
-      </c>
-      <c r="S28">
+      <c r="H28">
         <v>8</v>
       </c>
-      <c r="T28" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C29" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D29">
+        <v>657</v>
+      </c>
+      <c r="E29">
+        <v>603</v>
       </c>
       <c r="F29">
-        <v>183</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>657</v>
-      </c>
-      <c r="J29">
-        <v>603</v>
-      </c>
-      <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29">
-        <v>100</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="G29" s="3">
         <v>13</v>
       </c>
-      <c r="S29">
+      <c r="H29">
         <v>8</v>
       </c>
-      <c r="T29" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="C30" t="s">
-        <v>1171</v>
+        <v>1160</v>
+      </c>
+      <c r="D30">
+        <v>600</v>
+      </c>
+      <c r="E30">
+        <v>531</v>
       </c>
       <c r="F30">
-        <v>179</v>
-      </c>
-      <c r="G30">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="3">
         <v>11</v>
       </c>
-      <c r="I30">
-        <v>600</v>
-      </c>
-      <c r="J30">
-        <v>531</v>
-      </c>
-      <c r="P30">
-        <v>0.3</v>
-      </c>
-      <c r="Q30">
-        <v>100</v>
-      </c>
-      <c r="R30" s="3">
-        <v>11</v>
-      </c>
-      <c r="S30">
+      <c r="H30">
         <v>8</v>
       </c>
-      <c r="T30" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="C31" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D31">
+        <v>603</v>
+      </c>
+      <c r="E31">
+        <v>536</v>
       </c>
       <c r="F31">
-        <v>179</v>
-      </c>
-      <c r="G31">
-        <v>12</v>
-      </c>
-      <c r="I31">
-        <v>603</v>
-      </c>
-      <c r="J31">
-        <v>536</v>
-      </c>
-      <c r="P31">
         <v>0.3</v>
       </c>
-      <c r="Q31">
-        <v>100</v>
-      </c>
-      <c r="R31" s="3">
+      <c r="G31" s="3">
         <v>11</v>
       </c>
-      <c r="S31">
+      <c r="H31">
         <v>8</v>
       </c>
-      <c r="T31" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="C32" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D32">
+        <v>664</v>
+      </c>
+      <c r="E32">
+        <v>599</v>
       </c>
       <c r="F32">
-        <v>184</v>
-      </c>
-      <c r="G32">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="3">
         <v>12</v>
       </c>
-      <c r="I32">
-        <v>664</v>
-      </c>
-      <c r="J32">
-        <v>599</v>
-      </c>
-      <c r="P32">
-        <v>0.3</v>
-      </c>
-      <c r="Q32">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>12</v>
-      </c>
-      <c r="S32">
+      <c r="H32">
         <v>8</v>
       </c>
-      <c r="T32" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C33" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D33">
+        <v>657</v>
+      </c>
+      <c r="E33">
+        <v>603</v>
       </c>
       <c r="F33">
-        <v>183</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>657</v>
-      </c>
-      <c r="J33">
-        <v>603</v>
-      </c>
-      <c r="P33">
         <v>0.3</v>
       </c>
-      <c r="Q33">
-        <v>100</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="G33" s="3">
         <v>13</v>
       </c>
-      <c r="S33">
+      <c r="H33">
         <v>8</v>
       </c>
-      <c r="T33" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="C34" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D34">
+        <v>600</v>
+      </c>
+      <c r="E34">
+        <v>531</v>
       </c>
       <c r="F34">
-        <v>179</v>
-      </c>
-      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="3">
         <v>11</v>
       </c>
-      <c r="I34">
-        <v>600</v>
-      </c>
-      <c r="J34">
-        <v>531</v>
-      </c>
-      <c r="P34">
-        <v>-1</v>
-      </c>
-      <c r="Q34">
-        <v>20000</v>
-      </c>
-      <c r="R34" s="3">
-        <v>11</v>
-      </c>
-      <c r="S34">
+      <c r="H34">
         <v>8</v>
       </c>
-      <c r="T34" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="C35" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D35">
+        <v>603</v>
+      </c>
+      <c r="E35">
+        <v>536</v>
       </c>
       <c r="F35">
-        <v>179</v>
-      </c>
-      <c r="G35">
-        <v>12</v>
-      </c>
-      <c r="I35">
-        <v>603</v>
-      </c>
-      <c r="J35">
-        <v>536</v>
-      </c>
-      <c r="P35">
         <v>-1</v>
       </c>
-      <c r="Q35">
-        <v>20000</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="G35" s="3">
         <v>11</v>
       </c>
-      <c r="S35">
+      <c r="H35">
         <v>8</v>
       </c>
-      <c r="T35" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="C36" t="s">
-        <v>1171</v>
+        <v>1160</v>
+      </c>
+      <c r="D36">
+        <v>664</v>
+      </c>
+      <c r="E36">
+        <v>599</v>
       </c>
       <c r="F36">
-        <v>184</v>
-      </c>
-      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="3">
         <v>12</v>
       </c>
-      <c r="I36">
-        <v>664</v>
-      </c>
-      <c r="J36">
-        <v>599</v>
-      </c>
-      <c r="P36">
-        <v>-1</v>
-      </c>
-      <c r="Q36">
-        <v>20000</v>
-      </c>
-      <c r="R36" s="3">
-        <v>12</v>
-      </c>
-      <c r="S36">
+      <c r="H36">
         <v>8</v>
       </c>
-      <c r="T36" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C37" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D37">
+        <v>657</v>
+      </c>
+      <c r="E37">
+        <v>603</v>
       </c>
       <c r="F37">
-        <v>183</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="I37">
-        <v>657</v>
-      </c>
-      <c r="J37">
-        <v>603</v>
-      </c>
-      <c r="P37">
         <v>-1</v>
       </c>
-      <c r="Q37">
-        <v>20000</v>
-      </c>
-      <c r="R37" s="3">
+      <c r="G37" s="3">
         <v>13</v>
       </c>
-      <c r="S37">
+      <c r="H37">
         <v>8</v>
       </c>
-      <c r="T37" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="C38" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D38">
+        <v>600</v>
+      </c>
+      <c r="E38">
+        <v>531</v>
       </c>
       <c r="F38">
-        <v>179</v>
-      </c>
-      <c r="G38">
+        <v>0.3</v>
+      </c>
+      <c r="G38" s="3">
         <v>11</v>
       </c>
-      <c r="I38">
-        <v>600</v>
-      </c>
-      <c r="J38">
-        <v>531</v>
-      </c>
-      <c r="P38">
-        <v>0.3</v>
-      </c>
-      <c r="Q38">
-        <v>20000</v>
-      </c>
-      <c r="R38" s="3">
-        <v>11</v>
-      </c>
-      <c r="S38">
+      <c r="H38">
         <v>8</v>
       </c>
-      <c r="T38" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="C39" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D39">
+        <v>603</v>
+      </c>
+      <c r="E39">
+        <v>536</v>
       </c>
       <c r="F39">
-        <v>179</v>
-      </c>
-      <c r="G39">
-        <v>12</v>
-      </c>
-      <c r="I39">
-        <v>603</v>
-      </c>
-      <c r="J39">
-        <v>536</v>
-      </c>
-      <c r="P39">
         <v>0.3</v>
       </c>
-      <c r="Q39">
-        <v>20000</v>
-      </c>
-      <c r="R39" s="3">
+      <c r="G39" s="3">
         <v>11</v>
       </c>
-      <c r="S39">
+      <c r="H39">
         <v>8</v>
       </c>
-      <c r="T39" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="C40" t="s">
-        <v>1194</v>
+        <v>1178</v>
+      </c>
+      <c r="D40">
+        <v>664</v>
+      </c>
+      <c r="E40">
+        <v>599</v>
       </c>
       <c r="F40">
-        <v>184</v>
-      </c>
-      <c r="G40">
+        <v>0.3</v>
+      </c>
+      <c r="G40" s="3">
         <v>12</v>
       </c>
-      <c r="I40">
-        <v>664</v>
-      </c>
-      <c r="J40">
-        <v>599</v>
-      </c>
-      <c r="P40">
-        <v>0.3</v>
-      </c>
-      <c r="Q40">
-        <v>20000</v>
-      </c>
-      <c r="R40" s="3">
-        <v>12</v>
-      </c>
-      <c r="S40">
+      <c r="H40">
         <v>8</v>
       </c>
-      <c r="T40" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+        <v>1178</v>
+      </c>
+      <c r="D41" s="6">
+        <v>657</v>
+      </c>
+      <c r="E41" s="6">
+        <v>603</v>
+      </c>
       <c r="F41" s="6">
-        <v>183</v>
-      </c>
-      <c r="G41" s="6">
-        <v>10</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6">
-        <v>657</v>
-      </c>
-      <c r="J41" s="6">
-        <v>603</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q41" s="6">
-        <v>20000</v>
-      </c>
-      <c r="R41" s="7">
+      <c r="G41" s="7">
         <v>13</v>
       </c>
-      <c r="S41" s="6">
+      <c r="H41" s="6">
         <v>8</v>
       </c>
-      <c r="T41" s="6" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I41" s="6" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C42" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D42">
+        <v>326</v>
+      </c>
+      <c r="E42">
+        <v>170</v>
       </c>
       <c r="F42">
-        <v>79</v>
-      </c>
-      <c r="G42">
-        <v>18</v>
-      </c>
-      <c r="I42">
-        <v>326</v>
-      </c>
-      <c r="J42">
-        <v>170</v>
-      </c>
-      <c r="P42">
         <v>-1</v>
       </c>
-      <c r="Q42">
-        <v>100000</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="G42" s="3">
         <v>14</v>
       </c>
-      <c r="S42">
+      <c r="H42">
         <v>9</v>
       </c>
-      <c r="T42" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C43" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D43">
+        <v>326</v>
+      </c>
+      <c r="E43">
+        <v>157</v>
       </c>
       <c r="F43">
-        <v>80</v>
-      </c>
-      <c r="G43">
-        <v>24</v>
-      </c>
-      <c r="I43">
-        <v>326</v>
-      </c>
-      <c r="J43">
-        <v>157</v>
-      </c>
-      <c r="P43">
         <v>-1</v>
       </c>
-      <c r="Q43">
-        <v>100000</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="G43" s="3">
         <v>15</v>
       </c>
-      <c r="S43">
+      <c r="H43">
         <v>9</v>
       </c>
-      <c r="T43" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C44" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D44">
+        <v>326</v>
+      </c>
+      <c r="E44">
+        <v>170</v>
       </c>
       <c r="F44">
-        <v>79</v>
-      </c>
-      <c r="G44">
-        <v>18</v>
-      </c>
-      <c r="I44">
-        <v>326</v>
-      </c>
-      <c r="J44">
-        <v>170</v>
-      </c>
-      <c r="P44">
         <v>-0.5</v>
       </c>
-      <c r="Q44">
-        <v>100</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="G44" s="3">
         <v>14</v>
       </c>
-      <c r="S44">
+      <c r="H44">
         <v>9</v>
       </c>
-      <c r="T44" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C45" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D45">
+        <v>326</v>
+      </c>
+      <c r="E45">
+        <v>157</v>
       </c>
       <c r="F45">
-        <v>80</v>
-      </c>
-      <c r="G45">
-        <v>24</v>
-      </c>
-      <c r="I45">
-        <v>326</v>
-      </c>
-      <c r="J45">
-        <v>157</v>
-      </c>
-      <c r="P45">
         <v>-0.5</v>
       </c>
-      <c r="Q45">
-        <v>100</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="G45" s="3">
         <v>15</v>
       </c>
-      <c r="S45">
+      <c r="H45">
         <v>9</v>
       </c>
-      <c r="T45" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C46" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D46">
+        <v>326</v>
+      </c>
+      <c r="E46">
+        <v>170</v>
       </c>
       <c r="F46">
-        <v>79</v>
-      </c>
-      <c r="G46">
-        <v>18</v>
-      </c>
-      <c r="I46">
-        <v>326</v>
-      </c>
-      <c r="J46">
-        <v>170</v>
-      </c>
-      <c r="P46">
         <v>-0.5</v>
       </c>
-      <c r="Q46">
-        <v>20000</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="G46" s="3">
         <v>14</v>
       </c>
-      <c r="S46">
+      <c r="H46">
         <v>9</v>
       </c>
-      <c r="T46" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C47" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D47">
+        <v>326</v>
+      </c>
+      <c r="E47">
+        <v>157</v>
       </c>
       <c r="F47">
-        <v>80</v>
-      </c>
-      <c r="G47">
-        <v>24</v>
-      </c>
-      <c r="I47">
-        <v>326</v>
-      </c>
-      <c r="J47">
-        <v>157</v>
-      </c>
-      <c r="P47">
         <v>-0.5</v>
       </c>
-      <c r="Q47">
-        <v>20000</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="G47" s="3">
         <v>15</v>
       </c>
-      <c r="S47">
+      <c r="H47">
         <v>9</v>
       </c>
-      <c r="T47" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C48" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D48">
+        <v>326</v>
+      </c>
+      <c r="E48">
+        <v>170</v>
       </c>
       <c r="F48">
-        <v>79</v>
-      </c>
-      <c r="G48">
-        <v>18</v>
-      </c>
-      <c r="I48">
-        <v>326</v>
-      </c>
-      <c r="J48">
-        <v>170</v>
-      </c>
-      <c r="P48">
         <v>0</v>
       </c>
-      <c r="Q48">
-        <v>100</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="G48" s="3">
         <v>14</v>
       </c>
-      <c r="S48">
+      <c r="H48">
         <v>9</v>
       </c>
-      <c r="T48" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C49" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D49">
+        <v>326</v>
+      </c>
+      <c r="E49">
+        <v>157</v>
       </c>
       <c r="F49">
-        <v>80</v>
-      </c>
-      <c r="G49">
-        <v>24</v>
-      </c>
-      <c r="I49">
-        <v>326</v>
-      </c>
-      <c r="J49">
-        <v>157</v>
-      </c>
-      <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49">
-        <v>100</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="G49" s="3">
         <v>15</v>
       </c>
-      <c r="S49">
+      <c r="H49">
         <v>9</v>
       </c>
-      <c r="T49" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C50" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D50">
+        <v>326</v>
+      </c>
+      <c r="E50">
+        <v>170</v>
       </c>
       <c r="F50">
-        <v>79</v>
-      </c>
-      <c r="G50">
-        <v>18</v>
-      </c>
-      <c r="I50">
-        <v>326</v>
-      </c>
-      <c r="J50">
-        <v>170</v>
-      </c>
-      <c r="P50">
         <v>0</v>
       </c>
-      <c r="Q50">
-        <v>20000</v>
-      </c>
-      <c r="R50" s="3">
+      <c r="G50" s="3">
         <v>14</v>
       </c>
-      <c r="S50">
+      <c r="H50">
         <v>9</v>
       </c>
-      <c r="T50" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C51" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D51">
+        <v>326</v>
+      </c>
+      <c r="E51">
+        <v>157</v>
       </c>
       <c r="F51">
-        <v>80</v>
-      </c>
-      <c r="G51">
-        <v>24</v>
-      </c>
-      <c r="I51">
-        <v>326</v>
-      </c>
-      <c r="J51">
-        <v>157</v>
-      </c>
-      <c r="P51">
         <v>0</v>
       </c>
-      <c r="Q51">
-        <v>20000</v>
-      </c>
-      <c r="R51" s="3">
+      <c r="G51" s="3">
         <v>15</v>
       </c>
-      <c r="S51">
+      <c r="H51">
         <v>9</v>
       </c>
-      <c r="T51" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C52" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D52">
+        <v>326</v>
+      </c>
+      <c r="E52">
+        <v>170</v>
       </c>
       <c r="F52">
-        <v>79</v>
-      </c>
-      <c r="G52">
-        <v>18</v>
-      </c>
-      <c r="I52">
-        <v>326</v>
-      </c>
-      <c r="J52">
-        <v>170</v>
-      </c>
-      <c r="P52">
         <v>0.3</v>
       </c>
-      <c r="Q52">
-        <v>100</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="G52" s="3">
         <v>14</v>
       </c>
-      <c r="S52">
+      <c r="H52">
         <v>9</v>
       </c>
-      <c r="T52" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C53" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D53">
+        <v>326</v>
+      </c>
+      <c r="E53">
+        <v>157</v>
       </c>
       <c r="F53">
-        <v>80</v>
-      </c>
-      <c r="G53">
-        <v>24</v>
-      </c>
-      <c r="I53">
-        <v>326</v>
-      </c>
-      <c r="J53">
-        <v>157</v>
-      </c>
-      <c r="P53">
         <v>0.3</v>
       </c>
-      <c r="Q53">
-        <v>100</v>
-      </c>
-      <c r="R53" s="3">
+      <c r="G53" s="3">
         <v>15</v>
       </c>
-      <c r="S53">
+      <c r="H53">
         <v>9</v>
       </c>
-      <c r="T53" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C54" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D54">
+        <v>326</v>
+      </c>
+      <c r="E54">
+        <v>170</v>
       </c>
       <c r="F54">
-        <v>79</v>
-      </c>
-      <c r="G54">
-        <v>18</v>
-      </c>
-      <c r="I54">
-        <v>326</v>
-      </c>
-      <c r="J54">
-        <v>170</v>
-      </c>
-      <c r="P54">
         <v>0.3</v>
       </c>
-      <c r="Q54">
-        <v>20000</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="G54" s="3">
         <v>14</v>
       </c>
-      <c r="S54">
+      <c r="H54">
         <v>9</v>
       </c>
-      <c r="T54" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C55" t="s">
-        <v>1197</v>
+        <v>1181</v>
+      </c>
+      <c r="D55">
+        <v>326</v>
+      </c>
+      <c r="E55">
+        <v>157</v>
       </c>
       <c r="F55">
-        <v>80</v>
-      </c>
-      <c r="G55">
-        <v>24</v>
-      </c>
-      <c r="I55">
-        <v>326</v>
-      </c>
-      <c r="J55">
-        <v>157</v>
-      </c>
-      <c r="P55">
         <v>0.3</v>
       </c>
-      <c r="Q55">
-        <v>20000</v>
-      </c>
-      <c r="R55" s="3">
+      <c r="G55" s="3">
         <v>15</v>
       </c>
-      <c r="S55">
+      <c r="H55">
         <v>9</v>
       </c>
-      <c r="T55" t="s">
-        <v>1185</v>
+      <c r="I55" t="s">
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
@@ -44277,7 +43573,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="B1" t="s">
         <v>1146</v>
@@ -44319,7 +43615,7 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -44330,7 +43626,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="C2" s="6">
         <v>68.790000000000006</v>
@@ -44370,7 +43666,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="C3" s="3">
         <f>100-SUM(D3:O3)</f>
@@ -44406,7 +43702,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4" si="0">100-SUM(D4:O4)</f>
@@ -44442,7 +43738,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="C5" s="7">
         <f>100-SUM(D5:O5)</f>
@@ -44483,7 +43779,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="C6" s="3">
         <f>100-SUM(D6:O6)</f>
@@ -44519,7 +43815,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="C7" s="3">
         <f>100-SUM(D7:O7)</f>
@@ -44555,7 +43851,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="C8" s="7">
         <f>100-SUM(D8:O8)</f>
@@ -44596,7 +43892,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="C9" s="3">
         <f>100-SUM(D9:P9)</f>
@@ -44632,7 +43928,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="C10" s="7">
         <f>100-SUM(D10:P10)</f>
@@ -44718,7 +44014,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:C16" si="1">100-SUM(D12:O12)</f>
@@ -44754,7 +44050,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="C13" s="3">
         <f>100-SUM(D13:P13)</f>
@@ -44793,7 +44089,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C14" s="3">
         <f>100-SUM(D14:P14)</f>
@@ -44836,7 +44132,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="1"/>
@@ -44869,7 +44165,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
@@ -44924,16 +44220,16 @@
         <v>1145</v>
       </c>
       <c r="B1" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="E1" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -45371,7 +44667,7 @@
         <v>5.702430536445525</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -45539,7 +44835,7 @@
         <v>5.7395723444500923</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -46127,7 +45423,7 @@
         <v>5.1986570869544222</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -46190,7 +45486,7 @@
         <v>6.9947569445876283</v>
       </c>
       <c r="E84" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -46208,7 +45504,7 @@
         <v>7.0791812460476251</v>
       </c>
       <c r="E85" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -46331,7 +45627,7 @@
         <v>5.7481880270062007</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -46349,7 +45645,7 @@
         <v>5.826074802700826</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -46382,7 +45678,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -46505,7 +45801,7 @@
         <v>6.8142475957319206</v>
       </c>
       <c r="E104" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -46523,7 +45819,7 @@
         <v>6.9947569445876283</v>
       </c>
       <c r="E105" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -46571,7 +45867,7 @@
         <v>5.8561244442423002</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -46649,7 +45945,7 @@
         <v>5.4698220159781634</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -46667,7 +45963,7 @@
         <v>7.1172712956557644</v>
       </c>
       <c r="E114" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -46685,7 +45981,7 @@
         <v>7.0413926851582254</v>
       </c>
       <c r="E115" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -46748,7 +46044,7 @@
         <v>6.7176705030022621</v>
       </c>
       <c r="E119" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -46811,7 +46107,7 @@
         <v>6.9947569445876283</v>
       </c>
       <c r="E123" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -46949,7 +46245,7 @@
         <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -46982,7 +46278,7 @@
         <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -47030,7 +46326,7 @@
         <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -47168,7 +46464,7 @@
         <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -47216,7 +46512,7 @@
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -47234,7 +46530,7 @@
         <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -47252,7 +46548,7 @@
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -47390,7 +46686,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -47453,7 +46749,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -47471,7 +46767,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -47879,7 +47175,7 @@
         <v>10.107209969647869</v>
       </c>
       <c r="E192" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -47897,7 +47193,7 @@
         <v>10.38738982633873</v>
       </c>
       <c r="E193" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -47915,7 +47211,7 @@
         <v>10.309630167425899</v>
       </c>
       <c r="E194" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -47933,7 +47229,7 @@
         <v>10.201397124320451</v>
       </c>
       <c r="E195" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -48101,7 +47397,7 @@
         <v>10.004321373782643</v>
       </c>
       <c r="E206" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -48119,7 +47415,7 @@
         <v>10.15836249209525</v>
       </c>
       <c r="E207" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -48137,7 +47433,7 @@
         <v>10.311753861055754</v>
       </c>
       <c r="E208" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -48155,7 +47451,7 @@
         <v>10.404833716619938</v>
       </c>
       <c r="E209" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -48563,7 +47859,7 @@
         <v>8</v>
       </c>
       <c r="E236" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -48581,7 +47877,7 @@
         <v>8</v>
       </c>
       <c r="E237" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -48599,7 +47895,7 @@
         <v>8</v>
       </c>
       <c r="E238" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -48827,7 +48123,7 @@
         <v>8</v>
       </c>
       <c r="E253" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -48860,7 +48156,7 @@
         <v>8</v>
       </c>
       <c r="E255" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -48878,7 +48174,7 @@
         <v>8</v>
       </c>
       <c r="E256" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -48896,7 +48192,7 @@
         <v>8</v>
       </c>
       <c r="E257" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -49079,7 +48375,7 @@
         <v>8</v>
       </c>
       <c r="E269" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -49097,7 +48393,7 @@
         <v>8</v>
       </c>
       <c r="E270" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -49115,7 +48411,7 @@
         <v>8</v>
       </c>
       <c r="E271" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -49133,7 +48429,7 @@
         <v>8</v>
       </c>
       <c r="E272" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -49331,7 +48627,7 @@
         <v>8</v>
       </c>
       <c r="E285" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -49349,7 +48645,7 @@
         <v>8</v>
       </c>
       <c r="E286" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -49367,7 +48663,7 @@
         <v>8</v>
       </c>
       <c r="E287" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -49385,7 +48681,7 @@
         <v>8</v>
       </c>
       <c r="E288" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -49613,7 +48909,7 @@
         <v>8</v>
       </c>
       <c r="E303" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -49631,7 +48927,7 @@
         <v>8</v>
       </c>
       <c r="E304" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -49829,7 +49125,7 @@
         <v>8</v>
       </c>
       <c r="E317" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -49847,7 +49143,7 @@
         <v>8</v>
       </c>
       <c r="E318" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -49970,7 +49266,7 @@
         <v>8</v>
       </c>
       <c r="E326" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -50003,7 +49299,7 @@
         <v>8</v>
       </c>
       <c r="E328" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -50021,7 +49317,7 @@
         <v>8</v>
       </c>
       <c r="E329" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -50039,7 +49335,7 @@
         <v>8</v>
       </c>
       <c r="E330" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -50162,7 +49458,7 @@
         <v>8</v>
       </c>
       <c r="E338" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -50180,7 +49476,7 @@
         <v>8</v>
       </c>
       <c r="E339" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -50198,7 +49494,7 @@
         <v>8</v>
       </c>
       <c r="E340" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -50366,7 +49662,7 @@
         <v>8</v>
       </c>
       <c r="E351" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -50384,7 +49680,7 @@
         <v>8</v>
       </c>
       <c r="E352" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -50522,7 +49818,7 @@
         <v>8</v>
       </c>
       <c r="E361" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -50540,7 +49836,7 @@
         <v>8</v>
       </c>
       <c r="E362" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -50663,7 +49959,7 @@
         <v>8</v>
       </c>
       <c r="E370" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -50681,7 +49977,7 @@
         <v>8</v>
       </c>
       <c r="E371" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -50699,7 +49995,7 @@
         <v>8</v>
       </c>
       <c r="E372" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -50822,7 +50118,7 @@
         <v>8</v>
       </c>
       <c r="E380" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -50840,7 +50136,7 @@
         <v>8</v>
       </c>
       <c r="E381" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -50858,7 +50154,7 @@
         <v>8</v>
       </c>
       <c r="E382" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -51056,7 +50352,7 @@
         <v>10</v>
       </c>
       <c r="E395" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -51074,7 +50370,7 @@
         <v>10</v>
       </c>
       <c r="E396" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -51272,7 +50568,7 @@
         <v>10</v>
       </c>
       <c r="E409" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -51290,7 +50586,7 @@
         <v>10</v>
       </c>
       <c r="E410" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -51308,7 +50604,7 @@
         <v>6.7275412570285562</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -51326,7 +50622,7 @@
         <v>6.9831750720378132</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -51494,7 +50790,7 @@
         <v>10</v>
       </c>
       <c r="E423" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -51512,7 +50808,7 @@
         <v>10</v>
       </c>
       <c r="E424" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -51530,7 +50826,7 @@
         <v>10</v>
       </c>
       <c r="E425" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -51713,7 +51009,7 @@
         <v>10</v>
       </c>
       <c r="E437" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -51731,7 +51027,7 @@
         <v>10</v>
       </c>
       <c r="E438" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -51869,7 +51165,7 @@
         <v>10</v>
       </c>
       <c r="E447" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -51887,7 +51183,7 @@
         <v>10</v>
       </c>
       <c r="E448" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -52025,7 +51321,7 @@
         <v>10</v>
       </c>
       <c r="E457" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
@@ -52043,7 +51339,7 @@
         <v>10</v>
       </c>
       <c r="E458" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -52166,7 +51462,7 @@
         <v>10</v>
       </c>
       <c r="E466" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -52184,7 +51480,7 @@
         <v>10</v>
       </c>
       <c r="E467" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -52202,7 +51498,7 @@
         <v>10</v>
       </c>
       <c r="E468" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -52310,7 +51606,7 @@
         <v>10</v>
       </c>
       <c r="E475" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -52328,7 +51624,7 @@
         <v>10</v>
       </c>
       <c r="E476" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -52496,7 +51792,7 @@
         <v>8</v>
       </c>
       <c r="E487" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -52514,7 +51810,7 @@
         <v>8</v>
       </c>
       <c r="E488" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -52532,7 +51828,7 @@
         <v>8</v>
       </c>
       <c r="E489" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -52550,7 +51846,7 @@
         <v>8</v>
       </c>
       <c r="E490" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -52733,7 +52029,7 @@
         <v>8</v>
       </c>
       <c r="E502" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -52751,7 +52047,7 @@
         <v>8</v>
       </c>
       <c r="E503" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -52769,7 +52065,7 @@
         <v>8</v>
       </c>
       <c r="E504" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -52877,7 +52173,7 @@
         <v>8</v>
       </c>
       <c r="E511" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -52895,7 +52191,7 @@
         <v>8</v>
       </c>
       <c r="E512" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -53018,7 +52314,7 @@
         <v>8</v>
       </c>
       <c r="E520" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -53036,7 +52332,7 @@
         <v>8</v>
       </c>
       <c r="E521" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -53054,7 +52350,7 @@
         <v>8</v>
       </c>
       <c r="E522" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -53162,7 +52458,7 @@
         <v>10</v>
       </c>
       <c r="E529" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
@@ -53180,7 +52476,7 @@
         <v>10</v>
       </c>
       <c r="E530" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
@@ -53288,7 +52584,7 @@
         <v>10</v>
       </c>
       <c r="E537" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
@@ -53306,7 +52602,7 @@
         <v>10</v>
       </c>
       <c r="E538" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
@@ -53444,7 +52740,7 @@
         <v>8</v>
       </c>
       <c r="E547" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
@@ -53462,7 +52758,7 @@
         <v>8</v>
       </c>
       <c r="E548" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
@@ -53600,7 +52896,7 @@
         <v>8</v>
       </c>
       <c r="E557" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
@@ -53618,7 +52914,7 @@
         <v>8</v>
       </c>
       <c r="E558" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
@@ -53711,7 +53007,7 @@
         <v>10</v>
       </c>
       <c r="E564" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
@@ -53729,7 +53025,7 @@
         <v>10</v>
       </c>
       <c r="E565" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
@@ -53747,7 +53043,7 @@
         <v>10</v>
       </c>
       <c r="E566" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
@@ -53855,7 +53151,7 @@
         <v>10</v>
       </c>
       <c r="E573" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
@@ -53873,7 +53169,7 @@
         <v>10</v>
       </c>
       <c r="E574" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
@@ -53996,7 +53292,7 @@
         <v>8</v>
       </c>
       <c r="E582" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
@@ -54014,7 +53310,7 @@
         <v>8</v>
       </c>
       <c r="E583" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
@@ -54032,7 +53328,7 @@
         <v>8</v>
       </c>
       <c r="E584" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
@@ -54155,7 +53451,7 @@
         <v>8</v>
       </c>
       <c r="E592" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
@@ -54173,7 +53469,7 @@
         <v>8</v>
       </c>
       <c r="E593" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -54191,7 +53487,7 @@
         <v>8</v>
       </c>
       <c r="E594" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
@@ -54284,7 +53580,7 @@
         <v>10</v>
       </c>
       <c r="E600" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
@@ -54302,7 +53598,7 @@
         <v>10</v>
       </c>
       <c r="E601" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
@@ -54320,7 +53616,7 @@
         <v>10</v>
       </c>
       <c r="E602" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
@@ -54413,7 +53709,7 @@
         <v>10</v>
       </c>
       <c r="E608" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
@@ -54431,7 +53727,7 @@
         <v>10</v>
       </c>
       <c r="E609" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
@@ -54449,7 +53745,7 @@
         <v>10</v>
       </c>
       <c r="E610" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10989\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10989\PycharmProjects\1_alloy_fatigue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCE7E3-CC54-4893-88A1-58750A1434FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F07D5FD-3CF4-4FF7-BA4F-47D2526D1A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fatigue_strength" sheetId="1" r:id="rId1"/>
     <sheet name="aluminium alloy data" sheetId="2" r:id="rId2"/>
     <sheet name="Composition" sheetId="3" r:id="rId3"/>
     <sheet name="S_N curve" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1210">
   <si>
     <t>Al</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3498,6 +3498,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDAS</t>
+  </si>
+  <si>
+    <t>Vh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elongation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>UTS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3506,10 +3525,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CYS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTS/SYS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Fre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Composition</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3564,16 +3606,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>400–1500</t>
+  </si>
+  <si>
+    <t>25–65</t>
+  </si>
+  <si>
+    <t>22–62</t>
+  </si>
+  <si>
     <t xml:space="preserve">aluminum 357 alloy $SSM </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>50–350</t>
+  </si>
+  <si>
     <t>T5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">aluminum 357 alloy $SSM-Sr </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40–400</t>
   </si>
   <si>
     <t>A6N01S-T5-A</t>
@@ -4101,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1056"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -41938,21 +41995,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7851916-21BC-4B74-8EB2-D1F1B2AC0DCE}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1145</v>
       </c>
@@ -41971,7 +42022,7 @@
       <c r="F1" t="s">
         <v>1150</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>1151</v>
       </c>
       <c r="H1" t="s">
@@ -41980,1571 +42031,2224 @@
       <c r="I1" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="C2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D2">
+        <v>1166</v>
+      </c>
+      <c r="H2">
+        <v>72</v>
+      </c>
+      <c r="I2">
         <v>464</v>
       </c>
-      <c r="E2">
+      <c r="J2">
         <v>438</v>
       </c>
-      <c r="F2">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="K2">
+        <v>400</v>
+      </c>
+      <c r="L2">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>260</v>
+      </c>
+      <c r="N2">
+        <v>1.79</v>
+      </c>
+      <c r="O2">
+        <v>0.8</v>
+      </c>
+      <c r="P2">
+        <v>0.1</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="C3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D3">
+        <v>1166</v>
+      </c>
+      <c r="H3">
+        <v>72</v>
+      </c>
+      <c r="I3">
         <v>464</v>
       </c>
-      <c r="E3">
+      <c r="J3">
         <v>438</v>
       </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="K3">
+        <v>400</v>
+      </c>
+      <c r="L3">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>260</v>
+      </c>
+      <c r="N3">
+        <v>1.79</v>
+      </c>
+      <c r="O3">
+        <v>3.2</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3" s="3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="C4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D4">
+        <v>1169</v>
+      </c>
+      <c r="H4">
+        <v>72</v>
+      </c>
+      <c r="I4">
         <v>464</v>
       </c>
-      <c r="E4">
+      <c r="J4">
         <v>438</v>
       </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="K4">
+        <v>400</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>260</v>
+      </c>
+      <c r="N4">
+        <v>1.79</v>
+      </c>
+      <c r="O4">
+        <v>6.3</v>
+      </c>
+      <c r="P4">
+        <v>0.1</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="S4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="C5" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D5">
+        <v>1169</v>
+      </c>
+      <c r="H5">
+        <v>72</v>
+      </c>
+      <c r="I5">
         <v>464</v>
       </c>
-      <c r="E5">
+      <c r="J5">
         <v>438</v>
       </c>
-      <c r="F5">
+      <c r="K5">
+        <v>400</v>
+      </c>
+      <c r="L5">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>260</v>
+      </c>
+      <c r="N5">
+        <v>1.79</v>
+      </c>
+      <c r="O5">
+        <v>0.8</v>
+      </c>
+      <c r="P5">
         <v>-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5" s="3">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D6" s="6">
+        <v>1169</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <v>72</v>
+      </c>
+      <c r="I6" s="6">
         <v>464</v>
       </c>
-      <c r="E6" s="6">
+      <c r="J6" s="6">
         <v>438</v>
       </c>
-      <c r="F6" s="6">
+      <c r="K6" s="6">
+        <v>400</v>
+      </c>
+      <c r="L6" s="6">
+        <v>27</v>
+      </c>
+      <c r="M6" s="6">
+        <v>260</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="P6" s="6">
         <v>-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="Q6" s="6">
+        <v>10</v>
+      </c>
+      <c r="R6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="S6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T6" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1159</v>
+        <v>1170</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D7" s="8">
+        <v>1171</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <v>331</v>
       </c>
-      <c r="E7" s="8">
+      <c r="J7" s="8">
         <v>272</v>
       </c>
-      <c r="F7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>25</v>
+      </c>
+      <c r="R7" s="9">
         <v>2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="S7" s="8">
         <v>3</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T7" s="8" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
       <c r="C8" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D8">
+        <v>1171</v>
+      </c>
+      <c r="G8">
+        <v>7.6</v>
+      </c>
+      <c r="I8">
         <v>353</v>
       </c>
-      <c r="E8">
+      <c r="J8">
         <v>299</v>
       </c>
-      <c r="F8">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="P8">
+        <v>0.1</v>
+      </c>
+      <c r="Q8">
+        <v>25</v>
+      </c>
+      <c r="R8" s="3">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="S8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D9" s="6">
+        <v>1171</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>361</v>
       </c>
-      <c r="E9" s="6">
+      <c r="J9" s="6">
         <v>327</v>
       </c>
-      <c r="F9" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>25</v>
+      </c>
+      <c r="R9" s="7">
         <v>4</v>
       </c>
-      <c r="H9" s="6">
+      <c r="S9" s="6">
         <v>3</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T9" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D10" s="8">
+        <v>1175</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
         <v>177</v>
       </c>
-      <c r="E10" s="8">
+      <c r="J10" s="8">
         <v>90</v>
       </c>
-      <c r="F10" s="8">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8">
         <v>-1</v>
       </c>
-      <c r="G10" s="9">
+      <c r="Q10" s="8">
+        <v>20</v>
+      </c>
+      <c r="R10" s="9">
         <v>5</v>
       </c>
-      <c r="H10" s="8">
+      <c r="S10" s="8">
         <v>4</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T10" s="8" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="C11" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D11">
+        <v>1171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I11">
         <v>325</v>
       </c>
-      <c r="E11">
+      <c r="J11">
         <v>264</v>
       </c>
-      <c r="F11">
+      <c r="P11">
         <v>-1</v>
       </c>
-      <c r="G11" s="3">
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11" s="3">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="S11">
         <v>4</v>
       </c>
-      <c r="I11" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
       <c r="C12" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D12">
+        <v>1175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G12">
+        <v>9.1</v>
+      </c>
+      <c r="I12">
         <v>213</v>
       </c>
-      <c r="E12">
+      <c r="J12">
         <v>111</v>
       </c>
-      <c r="F12">
+      <c r="P12">
         <v>-1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12" s="3">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="S12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T12" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
       <c r="C13" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D13">
+        <v>1181</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G13">
+        <v>5.8</v>
+      </c>
+      <c r="I13">
         <v>263</v>
       </c>
-      <c r="E13">
+      <c r="J13">
         <v>182</v>
       </c>
-      <c r="F13">
+      <c r="P13">
         <v>-1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13" s="3">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="S13">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G14">
+        <v>11.7</v>
+      </c>
+      <c r="I14">
+        <v>185</v>
+      </c>
+      <c r="J14">
+        <v>185</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14" s="3">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s">
         <v>1167</v>
       </c>
-      <c r="C14" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D14">
-        <v>185</v>
-      </c>
-      <c r="E14">
-        <v>185</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6">
+        <v>288</v>
+      </c>
+      <c r="J15" s="6">
+        <v>288</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>20</v>
+      </c>
+      <c r="R15" s="7">
+        <v>7</v>
+      </c>
+      <c r="S15" s="6">
+        <v>4</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D15" s="6">
-        <v>288</v>
-      </c>
-      <c r="E15" s="6">
-        <v>288</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>7</v>
-      </c>
-      <c r="H15" s="6">
-        <v>4</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D16" s="8">
+        <v>1181</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>96</v>
+      </c>
+      <c r="G16" s="8">
+        <v>9</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
         <v>253</v>
       </c>
-      <c r="E16" s="8">
+      <c r="J16" s="8">
         <v>223</v>
       </c>
-      <c r="F16" s="8">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8">
         <v>-1</v>
       </c>
-      <c r="G16" s="9">
+      <c r="Q16" s="8">
+        <v>140</v>
+      </c>
+      <c r="R16" s="9">
         <v>8</v>
       </c>
-      <c r="H16" s="8">
+      <c r="S16" s="8">
         <v>5</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T16" s="8" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="C17" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D17">
+        <v>1181</v>
+      </c>
+      <c r="F17">
+        <v>96</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="I17">
         <v>264</v>
       </c>
-      <c r="E17">
+      <c r="J17">
         <v>236</v>
       </c>
-      <c r="F17">
+      <c r="P17">
         <v>-1</v>
       </c>
-      <c r="G17" s="3">
+      <c r="Q17">
+        <v>140</v>
+      </c>
+      <c r="R17" s="3">
         <v>9</v>
       </c>
-      <c r="H17">
+      <c r="S17">
         <v>5</v>
       </c>
-      <c r="I17" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T17" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D18" s="6">
+        <v>1181</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>96</v>
+      </c>
+      <c r="G18" s="6">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6">
         <v>195</v>
       </c>
-      <c r="E18" s="6">
+      <c r="J18" s="6">
         <v>138</v>
       </c>
-      <c r="F18" s="6">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6">
         <v>-1</v>
       </c>
-      <c r="G18" s="7">
+      <c r="Q18" s="6">
+        <v>20</v>
+      </c>
+      <c r="R18" s="7">
         <v>9</v>
       </c>
-      <c r="H18" s="6">
+      <c r="S18" s="6">
         <v>5</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T18" s="6" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1172</v>
+        <v>1188</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D19" s="8">
+        <v>1189</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8">
+        <v>141</v>
+      </c>
+      <c r="G19" s="8">
+        <v>18</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8">
         <v>473</v>
       </c>
-      <c r="E19" s="8">
+      <c r="J19" s="8">
         <v>364</v>
       </c>
-      <c r="F19" s="8">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8">
         <v>-1</v>
       </c>
-      <c r="G19" s="9">
+      <c r="Q19" s="8">
+        <v>9</v>
+      </c>
+      <c r="R19" s="9">
         <v>10</v>
       </c>
-      <c r="H19" s="8">
+      <c r="S19" s="8">
         <v>7</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T19" s="8" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="C20" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D20">
+        <v>1189</v>
+      </c>
+      <c r="F20">
+        <v>141</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="I20">
         <v>473</v>
       </c>
-      <c r="E20">
+      <c r="J20">
         <v>364</v>
       </c>
-      <c r="F20">
+      <c r="P20">
         <v>0.5</v>
       </c>
-      <c r="G20" s="3">
+      <c r="Q20">
+        <v>9</v>
+      </c>
+      <c r="R20" s="3">
         <v>10</v>
       </c>
-      <c r="H20">
+      <c r="S20">
         <v>7</v>
       </c>
-      <c r="I20" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T20" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D21" s="6">
+        <v>1189</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>141</v>
+      </c>
+      <c r="G21" s="6">
+        <v>18</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6">
         <v>473</v>
       </c>
-      <c r="E21" s="6">
+      <c r="J21" s="6">
         <v>364</v>
       </c>
-      <c r="F21" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>9</v>
+      </c>
+      <c r="R21" s="7">
         <v>10</v>
       </c>
-      <c r="H21" s="6">
+      <c r="S21" s="6">
         <v>7</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T21" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="C22" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D22">
+        <v>1171</v>
+      </c>
+      <c r="F22">
+        <v>179</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="I22">
         <v>600</v>
       </c>
-      <c r="E22">
+      <c r="J22">
         <v>531</v>
       </c>
-      <c r="F22">
+      <c r="P22">
         <v>-1</v>
       </c>
-      <c r="G22" s="3">
+      <c r="Q22">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>11</v>
       </c>
-      <c r="H22">
+      <c r="S22">
         <v>8</v>
       </c>
-      <c r="I22" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T22" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="C23" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D23">
+        <v>1171</v>
+      </c>
+      <c r="F23">
+        <v>179</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="I23">
         <v>603</v>
       </c>
-      <c r="E23">
+      <c r="J23">
         <v>536</v>
       </c>
-      <c r="F23">
+      <c r="P23">
         <v>-1</v>
       </c>
-      <c r="G23" s="3">
+      <c r="Q23">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>11</v>
       </c>
-      <c r="H23">
+      <c r="S23">
         <v>8</v>
       </c>
-      <c r="I23" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T23" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="C24" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D24">
+        <v>1194</v>
+      </c>
+      <c r="F24">
+        <v>184</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="I24">
         <v>664</v>
       </c>
-      <c r="E24">
+      <c r="J24">
         <v>599</v>
       </c>
-      <c r="F24">
+      <c r="P24">
         <v>-1</v>
       </c>
-      <c r="G24" s="3">
+      <c r="Q24">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>12</v>
       </c>
-      <c r="H24">
+      <c r="S24">
         <v>8</v>
       </c>
-      <c r="I24" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T24" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C25" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D25">
+        <v>1171</v>
+      </c>
+      <c r="F25">
+        <v>183</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="I25">
         <v>657</v>
       </c>
-      <c r="E25">
+      <c r="J25">
         <v>603</v>
       </c>
-      <c r="F25">
+      <c r="P25">
         <v>-1</v>
       </c>
-      <c r="G25" s="3">
+      <c r="Q25">
+        <v>100</v>
+      </c>
+      <c r="R25" s="3">
         <v>13</v>
       </c>
-      <c r="H25">
+      <c r="S25">
         <v>8</v>
       </c>
-      <c r="I25" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T25" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="C26" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D26">
+        <v>1194</v>
+      </c>
+      <c r="F26">
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="I26">
         <v>600</v>
       </c>
-      <c r="E26">
+      <c r="J26">
         <v>531</v>
       </c>
-      <c r="F26">
+      <c r="P26">
         <v>0</v>
       </c>
-      <c r="G26" s="3">
+      <c r="Q26">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>11</v>
       </c>
-      <c r="H26">
+      <c r="S26">
         <v>8</v>
       </c>
-      <c r="I26" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T26" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="C27" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D27">
+        <v>1194</v>
+      </c>
+      <c r="F27">
+        <v>179</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="I27">
         <v>603</v>
       </c>
-      <c r="E27">
+      <c r="J27">
         <v>536</v>
       </c>
-      <c r="F27">
+      <c r="P27">
         <v>0</v>
       </c>
-      <c r="G27" s="3">
+      <c r="Q27">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>11</v>
       </c>
-      <c r="H27">
+      <c r="S27">
         <v>8</v>
       </c>
-      <c r="I27" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="C28" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D28">
+        <v>1194</v>
+      </c>
+      <c r="F28">
+        <v>184</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="I28">
         <v>664</v>
       </c>
-      <c r="E28">
+      <c r="J28">
         <v>599</v>
       </c>
-      <c r="F28">
+      <c r="P28">
         <v>0</v>
       </c>
-      <c r="G28" s="3">
+      <c r="Q28">
+        <v>100</v>
+      </c>
+      <c r="R28" s="3">
         <v>12</v>
       </c>
-      <c r="H28">
+      <c r="S28">
         <v>8</v>
       </c>
-      <c r="I28" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T28" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C29" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D29">
+        <v>1194</v>
+      </c>
+      <c r="F29">
+        <v>183</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="I29">
         <v>657</v>
       </c>
-      <c r="E29">
+      <c r="J29">
         <v>603</v>
       </c>
-      <c r="F29">
+      <c r="P29">
         <v>0</v>
       </c>
-      <c r="G29" s="3">
+      <c r="Q29">
+        <v>100</v>
+      </c>
+      <c r="R29" s="3">
         <v>13</v>
       </c>
-      <c r="H29">
+      <c r="S29">
         <v>8</v>
       </c>
-      <c r="I29" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T29" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="C30" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D30">
+        <v>1171</v>
+      </c>
+      <c r="F30">
+        <v>179</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="I30">
         <v>600</v>
       </c>
-      <c r="E30">
+      <c r="J30">
         <v>531</v>
       </c>
-      <c r="F30">
+      <c r="P30">
         <v>0.3</v>
       </c>
-      <c r="G30" s="3">
+      <c r="Q30">
+        <v>100</v>
+      </c>
+      <c r="R30" s="3">
         <v>11</v>
       </c>
-      <c r="H30">
+      <c r="S30">
         <v>8</v>
       </c>
-      <c r="I30" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T30" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="C31" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D31">
+        <v>1194</v>
+      </c>
+      <c r="F31">
+        <v>179</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="I31">
         <v>603</v>
       </c>
-      <c r="E31">
+      <c r="J31">
         <v>536</v>
       </c>
-      <c r="F31">
+      <c r="P31">
         <v>0.3</v>
       </c>
-      <c r="G31" s="3">
+      <c r="Q31">
+        <v>100</v>
+      </c>
+      <c r="R31" s="3">
         <v>11</v>
       </c>
-      <c r="H31">
+      <c r="S31">
         <v>8</v>
       </c>
-      <c r="I31" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T31" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="C32" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D32">
+        <v>1194</v>
+      </c>
+      <c r="F32">
+        <v>184</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="I32">
         <v>664</v>
       </c>
-      <c r="E32">
+      <c r="J32">
         <v>599</v>
       </c>
-      <c r="F32">
+      <c r="P32">
         <v>0.3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="Q32">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>12</v>
       </c>
-      <c r="H32">
+      <c r="S32">
         <v>8</v>
       </c>
-      <c r="I32" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T32" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C33" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D33">
+        <v>1194</v>
+      </c>
+      <c r="F33">
+        <v>183</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="I33">
         <v>657</v>
       </c>
-      <c r="E33">
+      <c r="J33">
         <v>603</v>
       </c>
-      <c r="F33">
+      <c r="P33">
         <v>0.3</v>
       </c>
-      <c r="G33" s="3">
+      <c r="Q33">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>13</v>
       </c>
-      <c r="H33">
+      <c r="S33">
         <v>8</v>
       </c>
-      <c r="I33" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T33" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="C34" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D34">
+        <v>1194</v>
+      </c>
+      <c r="F34">
+        <v>179</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="I34">
         <v>600</v>
       </c>
-      <c r="E34">
+      <c r="J34">
         <v>531</v>
       </c>
-      <c r="F34">
+      <c r="P34">
         <v>-1</v>
       </c>
-      <c r="G34" s="3">
+      <c r="Q34">
+        <v>20000</v>
+      </c>
+      <c r="R34" s="3">
         <v>11</v>
       </c>
-      <c r="H34">
+      <c r="S34">
         <v>8</v>
       </c>
-      <c r="I34" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T34" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="C35" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D35">
+        <v>1194</v>
+      </c>
+      <c r="F35">
+        <v>179</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="I35">
         <v>603</v>
       </c>
-      <c r="E35">
+      <c r="J35">
         <v>536</v>
       </c>
-      <c r="F35">
+      <c r="P35">
         <v>-1</v>
       </c>
-      <c r="G35" s="3">
+      <c r="Q35">
+        <v>20000</v>
+      </c>
+      <c r="R35" s="3">
         <v>11</v>
       </c>
-      <c r="H35">
+      <c r="S35">
         <v>8</v>
       </c>
-      <c r="I35" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T35" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="C36" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D36">
+        <v>1171</v>
+      </c>
+      <c r="F36">
+        <v>184</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="I36">
         <v>664</v>
       </c>
-      <c r="E36">
+      <c r="J36">
         <v>599</v>
       </c>
-      <c r="F36">
+      <c r="P36">
         <v>-1</v>
       </c>
-      <c r="G36" s="3">
+      <c r="Q36">
+        <v>20000</v>
+      </c>
+      <c r="R36" s="3">
         <v>12</v>
       </c>
-      <c r="H36">
+      <c r="S36">
         <v>8</v>
       </c>
-      <c r="I36" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T36" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C37" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D37">
+        <v>1194</v>
+      </c>
+      <c r="F37">
+        <v>183</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="I37">
         <v>657</v>
       </c>
-      <c r="E37">
+      <c r="J37">
         <v>603</v>
       </c>
-      <c r="F37">
+      <c r="P37">
         <v>-1</v>
       </c>
-      <c r="G37" s="3">
+      <c r="Q37">
+        <v>20000</v>
+      </c>
+      <c r="R37" s="3">
         <v>13</v>
       </c>
-      <c r="H37">
+      <c r="S37">
         <v>8</v>
       </c>
-      <c r="I37" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T37" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="C38" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D38">
+        <v>1194</v>
+      </c>
+      <c r="F38">
+        <v>179</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="I38">
         <v>600</v>
       </c>
-      <c r="E38">
+      <c r="J38">
         <v>531</v>
       </c>
-      <c r="F38">
+      <c r="P38">
         <v>0.3</v>
       </c>
-      <c r="G38" s="3">
+      <c r="Q38">
+        <v>20000</v>
+      </c>
+      <c r="R38" s="3">
         <v>11</v>
       </c>
-      <c r="H38">
+      <c r="S38">
         <v>8</v>
       </c>
-      <c r="I38" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T38" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="C39" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D39">
+        <v>1194</v>
+      </c>
+      <c r="F39">
+        <v>179</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="I39">
         <v>603</v>
       </c>
-      <c r="E39">
+      <c r="J39">
         <v>536</v>
       </c>
-      <c r="F39">
+      <c r="P39">
         <v>0.3</v>
       </c>
-      <c r="G39" s="3">
+      <c r="Q39">
+        <v>20000</v>
+      </c>
+      <c r="R39" s="3">
         <v>11</v>
       </c>
-      <c r="H39">
+      <c r="S39">
         <v>8</v>
       </c>
-      <c r="I39" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T39" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="C40" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D40">
+        <v>1194</v>
+      </c>
+      <c r="F40">
+        <v>184</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="I40">
         <v>664</v>
       </c>
-      <c r="E40">
+      <c r="J40">
         <v>599</v>
       </c>
-      <c r="F40">
+      <c r="P40">
         <v>0.3</v>
       </c>
-      <c r="G40" s="3">
+      <c r="Q40">
+        <v>20000</v>
+      </c>
+      <c r="R40" s="3">
         <v>12</v>
       </c>
-      <c r="H40">
+      <c r="S40">
         <v>8</v>
       </c>
-      <c r="I40" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T40" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D41" s="6">
+        <v>1194</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
+        <v>183</v>
+      </c>
+      <c r="G41" s="6">
+        <v>10</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6">
         <v>657</v>
       </c>
-      <c r="E41" s="6">
+      <c r="J41" s="6">
         <v>603</v>
       </c>
-      <c r="F41" s="6">
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6">
         <v>0.3</v>
       </c>
-      <c r="G41" s="7">
+      <c r="Q41" s="6">
+        <v>20000</v>
+      </c>
+      <c r="R41" s="7">
         <v>13</v>
       </c>
-      <c r="H41" s="6">
+      <c r="S41" s="6">
         <v>8</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T41" s="6" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C42" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D42">
+        <v>1197</v>
+      </c>
+      <c r="F42">
+        <v>79</v>
+      </c>
+      <c r="G42">
+        <v>18</v>
+      </c>
+      <c r="I42">
         <v>326</v>
       </c>
-      <c r="E42">
+      <c r="J42">
         <v>170</v>
       </c>
-      <c r="F42">
+      <c r="P42">
         <v>-1</v>
       </c>
-      <c r="G42" s="3">
+      <c r="Q42">
+        <v>100000</v>
+      </c>
+      <c r="R42" s="3">
         <v>14</v>
       </c>
-      <c r="H42">
+      <c r="S42">
         <v>9</v>
       </c>
-      <c r="I42" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T42" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="C43" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D43">
+        <v>1197</v>
+      </c>
+      <c r="F43">
+        <v>80</v>
+      </c>
+      <c r="G43">
+        <v>24</v>
+      </c>
+      <c r="I43">
         <v>326</v>
       </c>
-      <c r="E43">
+      <c r="J43">
         <v>157</v>
       </c>
-      <c r="F43">
+      <c r="P43">
         <v>-1</v>
       </c>
-      <c r="G43" s="3">
+      <c r="Q43">
+        <v>100000</v>
+      </c>
+      <c r="R43" s="3">
         <v>15</v>
       </c>
-      <c r="H43">
+      <c r="S43">
         <v>9</v>
       </c>
-      <c r="I43" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T43" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C44" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D44">
+        <v>1197</v>
+      </c>
+      <c r="F44">
+        <v>79</v>
+      </c>
+      <c r="G44">
+        <v>18</v>
+      </c>
+      <c r="I44">
         <v>326</v>
       </c>
-      <c r="E44">
+      <c r="J44">
         <v>170</v>
       </c>
-      <c r="F44">
+      <c r="P44">
         <v>-0.5</v>
       </c>
-      <c r="G44" s="3">
+      <c r="Q44">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
         <v>14</v>
       </c>
-      <c r="H44">
+      <c r="S44">
         <v>9</v>
       </c>
-      <c r="I44" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T44" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="C45" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D45">
+        <v>1197</v>
+      </c>
+      <c r="F45">
+        <v>80</v>
+      </c>
+      <c r="G45">
+        <v>24</v>
+      </c>
+      <c r="I45">
         <v>326</v>
       </c>
-      <c r="E45">
+      <c r="J45">
         <v>157</v>
       </c>
-      <c r="F45">
+      <c r="P45">
         <v>-0.5</v>
       </c>
-      <c r="G45" s="3">
+      <c r="Q45">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>15</v>
       </c>
-      <c r="H45">
+      <c r="S45">
         <v>9</v>
       </c>
-      <c r="I45" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T45" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C46" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D46">
+        <v>1197</v>
+      </c>
+      <c r="F46">
+        <v>79</v>
+      </c>
+      <c r="G46">
+        <v>18</v>
+      </c>
+      <c r="I46">
         <v>326</v>
       </c>
-      <c r="E46">
+      <c r="J46">
         <v>170</v>
       </c>
-      <c r="F46">
+      <c r="P46">
         <v>-0.5</v>
       </c>
-      <c r="G46" s="3">
+      <c r="Q46">
+        <v>20000</v>
+      </c>
+      <c r="R46" s="3">
         <v>14</v>
       </c>
-      <c r="H46">
+      <c r="S46">
         <v>9</v>
       </c>
-      <c r="I46" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T46" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="C47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D47">
+        <v>1197</v>
+      </c>
+      <c r="F47">
+        <v>80</v>
+      </c>
+      <c r="G47">
+        <v>24</v>
+      </c>
+      <c r="I47">
         <v>326</v>
       </c>
-      <c r="E47">
+      <c r="J47">
         <v>157</v>
       </c>
-      <c r="F47">
+      <c r="P47">
         <v>-0.5</v>
       </c>
-      <c r="G47" s="3">
+      <c r="Q47">
+        <v>20000</v>
+      </c>
+      <c r="R47" s="3">
         <v>15</v>
       </c>
-      <c r="H47">
+      <c r="S47">
         <v>9</v>
       </c>
-      <c r="I47" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T47" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C48" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D48">
+        <v>1197</v>
+      </c>
+      <c r="F48">
+        <v>79</v>
+      </c>
+      <c r="G48">
+        <v>18</v>
+      </c>
+      <c r="I48">
         <v>326</v>
       </c>
-      <c r="E48">
+      <c r="J48">
         <v>170</v>
       </c>
-      <c r="F48">
+      <c r="P48">
         <v>0</v>
       </c>
-      <c r="G48" s="3">
+      <c r="Q48">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
         <v>14</v>
       </c>
-      <c r="H48">
+      <c r="S48">
         <v>9</v>
       </c>
-      <c r="I48" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T48" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="C49" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D49">
+        <v>1197</v>
+      </c>
+      <c r="F49">
+        <v>80</v>
+      </c>
+      <c r="G49">
+        <v>24</v>
+      </c>
+      <c r="I49">
         <v>326</v>
       </c>
-      <c r="E49">
+      <c r="J49">
         <v>157</v>
       </c>
-      <c r="F49">
+      <c r="P49">
         <v>0</v>
       </c>
-      <c r="G49" s="3">
+      <c r="Q49">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
         <v>15</v>
       </c>
-      <c r="H49">
+      <c r="S49">
         <v>9</v>
       </c>
-      <c r="I49" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T49" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C50" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D50">
+        <v>1197</v>
+      </c>
+      <c r="F50">
+        <v>79</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
+      <c r="I50">
         <v>326</v>
       </c>
-      <c r="E50">
+      <c r="J50">
         <v>170</v>
       </c>
-      <c r="F50">
+      <c r="P50">
         <v>0</v>
       </c>
-      <c r="G50" s="3">
+      <c r="Q50">
+        <v>20000</v>
+      </c>
+      <c r="R50" s="3">
         <v>14</v>
       </c>
-      <c r="H50">
+      <c r="S50">
         <v>9</v>
       </c>
-      <c r="I50" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T50" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="C51" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D51">
+        <v>1197</v>
+      </c>
+      <c r="F51">
+        <v>80</v>
+      </c>
+      <c r="G51">
+        <v>24</v>
+      </c>
+      <c r="I51">
         <v>326</v>
       </c>
-      <c r="E51">
+      <c r="J51">
         <v>157</v>
       </c>
-      <c r="F51">
+      <c r="P51">
         <v>0</v>
       </c>
-      <c r="G51" s="3">
+      <c r="Q51">
+        <v>20000</v>
+      </c>
+      <c r="R51" s="3">
         <v>15</v>
       </c>
-      <c r="H51">
+      <c r="S51">
         <v>9</v>
       </c>
-      <c r="I51" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T51" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C52" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D52">
+        <v>1197</v>
+      </c>
+      <c r="F52">
+        <v>79</v>
+      </c>
+      <c r="G52">
+        <v>18</v>
+      </c>
+      <c r="I52">
         <v>326</v>
       </c>
-      <c r="E52">
+      <c r="J52">
         <v>170</v>
       </c>
-      <c r="F52">
+      <c r="P52">
         <v>0.3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="Q52">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>14</v>
       </c>
-      <c r="H52">
+      <c r="S52">
         <v>9</v>
       </c>
-      <c r="I52" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T52" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="C53" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D53">
+        <v>1197</v>
+      </c>
+      <c r="F53">
+        <v>80</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="I53">
         <v>326</v>
       </c>
-      <c r="E53">
+      <c r="J53">
         <v>157</v>
       </c>
-      <c r="F53">
+      <c r="P53">
         <v>0.3</v>
       </c>
-      <c r="G53" s="3">
+      <c r="Q53">
+        <v>100</v>
+      </c>
+      <c r="R53" s="3">
         <v>15</v>
       </c>
-      <c r="H53">
+      <c r="S53">
         <v>9</v>
       </c>
-      <c r="I53" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T53" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C54" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D54">
+        <v>1197</v>
+      </c>
+      <c r="F54">
+        <v>79</v>
+      </c>
+      <c r="G54">
+        <v>18</v>
+      </c>
+      <c r="I54">
         <v>326</v>
       </c>
-      <c r="E54">
+      <c r="J54">
         <v>170</v>
       </c>
-      <c r="F54">
+      <c r="P54">
         <v>0.3</v>
       </c>
-      <c r="G54" s="3">
+      <c r="Q54">
+        <v>20000</v>
+      </c>
+      <c r="R54" s="3">
         <v>14</v>
       </c>
-      <c r="H54">
+      <c r="S54">
         <v>9</v>
       </c>
-      <c r="I54" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T54" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="C55" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D55">
+        <v>1197</v>
+      </c>
+      <c r="F55">
+        <v>80</v>
+      </c>
+      <c r="G55">
+        <v>24</v>
+      </c>
+      <c r="I55">
         <v>326</v>
       </c>
-      <c r="E55">
+      <c r="J55">
         <v>157</v>
       </c>
-      <c r="F55">
+      <c r="P55">
         <v>0.3</v>
       </c>
-      <c r="G55" s="3">
+      <c r="Q55">
+        <v>20000</v>
+      </c>
+      <c r="R55" s="3">
         <v>15</v>
       </c>
-      <c r="H55">
+      <c r="S55">
         <v>9</v>
       </c>
-      <c r="I55" t="s">
-        <v>1169</v>
+      <c r="T55" t="s">
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
@@ -43573,7 +44277,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>1151</v>
+        <v>1162</v>
       </c>
       <c r="B1" t="s">
         <v>1146</v>
@@ -43615,7 +44319,7 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>1183</v>
+        <v>1199</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -43626,7 +44330,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="C2" s="6">
         <v>68.790000000000006</v>
@@ -43666,7 +44370,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1184</v>
+        <v>1200</v>
       </c>
       <c r="C3" s="3">
         <f>100-SUM(D3:O3)</f>
@@ -43702,7 +44406,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1185</v>
+        <v>1201</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4" si="0">100-SUM(D4:O4)</f>
@@ -43738,7 +44442,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
       <c r="C5" s="7">
         <f>100-SUM(D5:O5)</f>
@@ -43779,7 +44483,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="C6" s="3">
         <f>100-SUM(D6:O6)</f>
@@ -43815,7 +44519,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
       <c r="C7" s="3">
         <f>100-SUM(D7:O7)</f>
@@ -43851,7 +44555,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1167</v>
+        <v>1182</v>
       </c>
       <c r="C8" s="7">
         <f>100-SUM(D8:O8)</f>
@@ -43892,7 +44596,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
       <c r="C9" s="3">
         <f>100-SUM(D9:P9)</f>
@@ -43928,7 +44632,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="C10" s="7">
         <f>100-SUM(D10:P10)</f>
@@ -44014,7 +44718,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1186</v>
+        <v>1202</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:C16" si="1">100-SUM(D12:O12)</f>
@@ -44050,7 +44754,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="C13" s="3">
         <f>100-SUM(D13:P13)</f>
@@ -44089,7 +44793,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C14" s="3">
         <f>100-SUM(D14:P14)</f>
@@ -44132,7 +44836,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="1"/>
@@ -44165,7 +44869,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1187</v>
+        <v>1203</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
@@ -44220,16 +44924,16 @@
         <v>1145</v>
       </c>
       <c r="B1" t="s">
-        <v>1188</v>
+        <v>1204</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1189</v>
+        <v>1205</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>1190</v>
+        <v>1206</v>
       </c>
       <c r="E1" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -44667,7 +45371,7 @@
         <v>5.702430536445525</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -44835,7 +45539,7 @@
         <v>5.7395723444500923</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -45423,7 +46127,7 @@
         <v>5.1986570869544222</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -45486,7 +46190,7 @@
         <v>6.9947569445876283</v>
       </c>
       <c r="E84" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -45504,7 +46208,7 @@
         <v>7.0791812460476251</v>
       </c>
       <c r="E85" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -45627,7 +46331,7 @@
         <v>5.7481880270062007</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -45645,7 +46349,7 @@
         <v>5.826074802700826</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -45678,7 +46382,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -45801,7 +46505,7 @@
         <v>6.8142475957319206</v>
       </c>
       <c r="E104" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -45819,7 +46523,7 @@
         <v>6.9947569445876283</v>
       </c>
       <c r="E105" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -45867,7 +46571,7 @@
         <v>5.8561244442423002</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -45945,7 +46649,7 @@
         <v>5.4698220159781634</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -45963,7 +46667,7 @@
         <v>7.1172712956557644</v>
       </c>
       <c r="E114" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -45981,7 +46685,7 @@
         <v>7.0413926851582254</v>
       </c>
       <c r="E115" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -46044,7 +46748,7 @@
         <v>6.7176705030022621</v>
       </c>
       <c r="E119" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -46107,7 +46811,7 @@
         <v>6.9947569445876283</v>
       </c>
       <c r="E123" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -46245,7 +46949,7 @@
         <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -46278,7 +46982,7 @@
         <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -46326,7 +47030,7 @@
         <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -46464,7 +47168,7 @@
         <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -46512,7 +47216,7 @@
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -46530,7 +47234,7 @@
         <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -46548,7 +47252,7 @@
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -46686,7 +47390,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -46749,7 +47453,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -46767,7 +47471,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -47175,7 +47879,7 @@
         <v>10.107209969647869</v>
       </c>
       <c r="E192" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -47193,7 +47897,7 @@
         <v>10.38738982633873</v>
       </c>
       <c r="E193" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -47211,7 +47915,7 @@
         <v>10.309630167425899</v>
       </c>
       <c r="E194" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -47229,7 +47933,7 @@
         <v>10.201397124320451</v>
       </c>
       <c r="E195" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -47397,7 +48101,7 @@
         <v>10.004321373782643</v>
       </c>
       <c r="E206" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -47415,7 +48119,7 @@
         <v>10.15836249209525</v>
       </c>
       <c r="E207" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -47433,7 +48137,7 @@
         <v>10.311753861055754</v>
       </c>
       <c r="E208" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -47451,7 +48155,7 @@
         <v>10.404833716619938</v>
       </c>
       <c r="E209" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -47859,7 +48563,7 @@
         <v>8</v>
       </c>
       <c r="E236" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -47877,7 +48581,7 @@
         <v>8</v>
       </c>
       <c r="E237" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -47895,7 +48599,7 @@
         <v>8</v>
       </c>
       <c r="E238" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -48123,7 +48827,7 @@
         <v>8</v>
       </c>
       <c r="E253" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -48156,7 +48860,7 @@
         <v>8</v>
       </c>
       <c r="E255" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -48174,7 +48878,7 @@
         <v>8</v>
       </c>
       <c r="E256" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -48192,7 +48896,7 @@
         <v>8</v>
       </c>
       <c r="E257" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -48375,7 +49079,7 @@
         <v>8</v>
       </c>
       <c r="E269" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -48393,7 +49097,7 @@
         <v>8</v>
       </c>
       <c r="E270" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -48411,7 +49115,7 @@
         <v>8</v>
       </c>
       <c r="E271" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -48429,7 +49133,7 @@
         <v>8</v>
       </c>
       <c r="E272" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -48627,7 +49331,7 @@
         <v>8</v>
       </c>
       <c r="E285" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -48645,7 +49349,7 @@
         <v>8</v>
       </c>
       <c r="E286" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -48663,7 +49367,7 @@
         <v>8</v>
       </c>
       <c r="E287" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -48681,7 +49385,7 @@
         <v>8</v>
       </c>
       <c r="E288" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -48909,7 +49613,7 @@
         <v>8</v>
       </c>
       <c r="E303" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -48927,7 +49631,7 @@
         <v>8</v>
       </c>
       <c r="E304" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -49125,7 +49829,7 @@
         <v>8</v>
       </c>
       <c r="E317" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -49143,7 +49847,7 @@
         <v>8</v>
       </c>
       <c r="E318" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -49266,7 +49970,7 @@
         <v>8</v>
       </c>
       <c r="E326" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -49299,7 +50003,7 @@
         <v>8</v>
       </c>
       <c r="E328" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -49317,7 +50021,7 @@
         <v>8</v>
       </c>
       <c r="E329" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -49335,7 +50039,7 @@
         <v>8</v>
       </c>
       <c r="E330" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -49458,7 +50162,7 @@
         <v>8</v>
       </c>
       <c r="E338" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -49476,7 +50180,7 @@
         <v>8</v>
       </c>
       <c r="E339" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -49494,7 +50198,7 @@
         <v>8</v>
       </c>
       <c r="E340" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -49662,7 +50366,7 @@
         <v>8</v>
       </c>
       <c r="E351" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -49680,7 +50384,7 @@
         <v>8</v>
       </c>
       <c r="E352" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -49818,7 +50522,7 @@
         <v>8</v>
       </c>
       <c r="E361" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -49836,7 +50540,7 @@
         <v>8</v>
       </c>
       <c r="E362" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -49959,7 +50663,7 @@
         <v>8</v>
       </c>
       <c r="E370" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -49977,7 +50681,7 @@
         <v>8</v>
       </c>
       <c r="E371" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -49995,7 +50699,7 @@
         <v>8</v>
       </c>
       <c r="E372" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -50118,7 +50822,7 @@
         <v>8</v>
       </c>
       <c r="E380" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -50136,7 +50840,7 @@
         <v>8</v>
       </c>
       <c r="E381" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -50154,7 +50858,7 @@
         <v>8</v>
       </c>
       <c r="E382" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -50352,7 +51056,7 @@
         <v>10</v>
       </c>
       <c r="E395" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -50370,7 +51074,7 @@
         <v>10</v>
       </c>
       <c r="E396" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -50568,7 +51272,7 @@
         <v>10</v>
       </c>
       <c r="E409" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -50586,7 +51290,7 @@
         <v>10</v>
       </c>
       <c r="E410" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -50604,7 +51308,7 @@
         <v>6.7275412570285562</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -50622,7 +51326,7 @@
         <v>6.9831750720378132</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -50790,7 +51494,7 @@
         <v>10</v>
       </c>
       <c r="E423" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -50808,7 +51512,7 @@
         <v>10</v>
       </c>
       <c r="E424" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -50826,7 +51530,7 @@
         <v>10</v>
       </c>
       <c r="E425" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -51009,7 +51713,7 @@
         <v>10</v>
       </c>
       <c r="E437" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -51027,7 +51731,7 @@
         <v>10</v>
       </c>
       <c r="E438" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -51165,7 +51869,7 @@
         <v>10</v>
       </c>
       <c r="E447" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -51183,7 +51887,7 @@
         <v>10</v>
       </c>
       <c r="E448" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -51321,7 +52025,7 @@
         <v>10</v>
       </c>
       <c r="E457" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
@@ -51339,7 +52043,7 @@
         <v>10</v>
       </c>
       <c r="E458" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -51462,7 +52166,7 @@
         <v>10</v>
       </c>
       <c r="E466" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -51480,7 +52184,7 @@
         <v>10</v>
       </c>
       <c r="E467" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -51498,7 +52202,7 @@
         <v>10</v>
       </c>
       <c r="E468" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -51606,7 +52310,7 @@
         <v>10</v>
       </c>
       <c r="E475" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -51624,7 +52328,7 @@
         <v>10</v>
       </c>
       <c r="E476" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -51792,7 +52496,7 @@
         <v>8</v>
       </c>
       <c r="E487" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -51810,7 +52514,7 @@
         <v>8</v>
       </c>
       <c r="E488" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -51828,7 +52532,7 @@
         <v>8</v>
       </c>
       <c r="E489" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -51846,7 +52550,7 @@
         <v>8</v>
       </c>
       <c r="E490" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -52029,7 +52733,7 @@
         <v>8</v>
       </c>
       <c r="E502" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -52047,7 +52751,7 @@
         <v>8</v>
       </c>
       <c r="E503" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -52065,7 +52769,7 @@
         <v>8</v>
       </c>
       <c r="E504" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -52173,7 +52877,7 @@
         <v>8</v>
       </c>
       <c r="E511" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -52191,7 +52895,7 @@
         <v>8</v>
       </c>
       <c r="E512" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -52314,7 +53018,7 @@
         <v>8</v>
       </c>
       <c r="E520" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -52332,7 +53036,7 @@
         <v>8</v>
       </c>
       <c r="E521" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -52350,7 +53054,7 @@
         <v>8</v>
       </c>
       <c r="E522" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -52458,7 +53162,7 @@
         <v>10</v>
       </c>
       <c r="E529" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
@@ -52476,7 +53180,7 @@
         <v>10</v>
       </c>
       <c r="E530" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
@@ -52584,7 +53288,7 @@
         <v>10</v>
       </c>
       <c r="E537" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
@@ -52602,7 +53306,7 @@
         <v>10</v>
       </c>
       <c r="E538" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
@@ -52740,7 +53444,7 @@
         <v>8</v>
       </c>
       <c r="E547" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
@@ -52758,7 +53462,7 @@
         <v>8</v>
       </c>
       <c r="E548" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
@@ -52896,7 +53600,7 @@
         <v>8</v>
       </c>
       <c r="E557" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
@@ -52914,7 +53618,7 @@
         <v>8</v>
       </c>
       <c r="E558" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
@@ -53007,7 +53711,7 @@
         <v>10</v>
       </c>
       <c r="E564" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
@@ -53025,7 +53729,7 @@
         <v>10</v>
       </c>
       <c r="E565" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
@@ -53043,7 +53747,7 @@
         <v>10</v>
       </c>
       <c r="E566" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
@@ -53151,7 +53855,7 @@
         <v>10</v>
       </c>
       <c r="E573" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
@@ -53169,7 +53873,7 @@
         <v>10</v>
       </c>
       <c r="E574" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
@@ -53292,7 +53996,7 @@
         <v>8</v>
       </c>
       <c r="E582" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
@@ -53310,7 +54014,7 @@
         <v>8</v>
       </c>
       <c r="E583" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
@@ -53328,7 +54032,7 @@
         <v>8</v>
       </c>
       <c r="E584" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
@@ -53451,7 +54155,7 @@
         <v>8</v>
       </c>
       <c r="E592" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
@@ -53469,7 +54173,7 @@
         <v>8</v>
       </c>
       <c r="E593" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -53487,7 +54191,7 @@
         <v>8</v>
       </c>
       <c r="E594" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
@@ -53580,7 +54284,7 @@
         <v>10</v>
       </c>
       <c r="E600" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
@@ -53598,7 +54302,7 @@
         <v>10</v>
       </c>
       <c r="E601" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
@@ -53616,7 +54320,7 @@
         <v>10</v>
       </c>
       <c r="E602" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
@@ -53709,7 +54413,7 @@
         <v>10</v>
       </c>
       <c r="E608" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
@@ -53727,7 +54431,7 @@
         <v>10</v>
       </c>
       <c r="E609" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
@@ -53745,7 +54449,7 @@
         <v>10</v>
       </c>
       <c r="E610" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
   </sheetData>
